--- a/medicine/Enfance/Mariko_Kikuta/Mariko_Kikuta.xlsx
+++ b/medicine/Enfance/Mariko_Kikuta/Mariko_Kikuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mariko Kikuta (菊田 まりこ, Kikuta Mariko?), née le 19 avril 1970 à Tokyo, est une auteure et illustratrice japonaise de livres pour la jeunesse.
 Après avoir terminé ses études au junior college (Tanki Daigaku) de l'Université d'art de Musashino, Kikuta devient graphiste et illustre une large gamme de produits tels que des cartes postales et de la papeterie.
@@ -513,7 +525,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Itsudemo kaieru. See you anytime I want (いつでも会える, 1998)
 Du bist immer noch bei mir (de) (2003)
@@ -549,7 +563,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Mariko Kikuta » (voir la liste des auteurs).
 Notices d'autorité : VIAF ISNI BnF (données) IdRef GND Japon CiNii Corée du Sud WorldCat 
